--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl5-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl5-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>319.3801833333334</v>
+        <v>4.429319</v>
       </c>
       <c r="H2">
-        <v>958.1405500000001</v>
+        <v>13.287957</v>
       </c>
       <c r="I2">
-        <v>0.9980732501448392</v>
+        <v>0.01355902605229267</v>
       </c>
       <c r="J2">
-        <v>0.9980732501448393</v>
+        <v>0.01355902605229268</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +567,22 @@
         <v>0.036557</v>
       </c>
       <c r="O2">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P2">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q2">
-        <v>3.891860454038889</v>
+        <v>0.05397420489433333</v>
       </c>
       <c r="R2">
-        <v>35.02674408635</v>
+        <v>0.4857678440489999</v>
       </c>
       <c r="S2">
-        <v>0.001320515961237411</v>
+        <v>2.031636763420763E-05</v>
       </c>
       <c r="T2">
-        <v>0.001320515961237411</v>
+        <v>2.031636763420763E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>319.3801833333334</v>
+        <v>4.429319</v>
       </c>
       <c r="H3">
-        <v>958.1405500000001</v>
+        <v>13.287957</v>
       </c>
       <c r="I3">
-        <v>0.9980732501448392</v>
+        <v>0.01355902605229267</v>
       </c>
       <c r="J3">
-        <v>0.9980732501448393</v>
+        <v>0.01355902605229268</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N3">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O3">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P3">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q3">
-        <v>64.91029616036111</v>
+        <v>0.3600401477943332</v>
       </c>
       <c r="R3">
-        <v>584.19266544325</v>
+        <v>3.240361330149</v>
       </c>
       <c r="S3">
-        <v>0.02202419206460781</v>
+        <v>0.0001355222929172243</v>
       </c>
       <c r="T3">
-        <v>0.02202419206460782</v>
+        <v>0.0001355222929172243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>319.3801833333334</v>
+        <v>4.429319</v>
       </c>
       <c r="H4">
-        <v>958.1405500000001</v>
+        <v>13.287957</v>
       </c>
       <c r="I4">
-        <v>0.9980732501448392</v>
+        <v>0.01355902605229267</v>
       </c>
       <c r="J4">
-        <v>0.9980732501448393</v>
+        <v>0.01355902605229268</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N4">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O4">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P4">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q4">
-        <v>2855.883227258417</v>
+        <v>35.04745166599499</v>
       </c>
       <c r="R4">
-        <v>25702.94904532575</v>
+        <v>315.427064993955</v>
       </c>
       <c r="S4">
-        <v>0.9690068360779062</v>
+        <v>0.01319217048370513</v>
       </c>
       <c r="T4">
-        <v>0.9690068360779064</v>
+        <v>0.01319217048370513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>319.3801833333334</v>
+        <v>4.429319</v>
       </c>
       <c r="H5">
-        <v>958.1405500000001</v>
+        <v>13.287957</v>
       </c>
       <c r="I5">
-        <v>0.9980732501448392</v>
+        <v>0.01355902605229267</v>
       </c>
       <c r="J5">
-        <v>0.9980732501448393</v>
+        <v>0.01355902605229268</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N5">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O5">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P5">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q5">
-        <v>16.86316721993889</v>
+        <v>0.5606056178729999</v>
       </c>
       <c r="R5">
-        <v>151.76850497945</v>
+        <v>5.045450560856999</v>
       </c>
       <c r="S5">
-        <v>0.005721706041087743</v>
+        <v>0.0002110169080361154</v>
       </c>
       <c r="T5">
-        <v>0.005721706041087745</v>
+        <v>0.0002110169080361154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +776,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6165536666666667</v>
+        <v>319.3801833333334</v>
       </c>
       <c r="H6">
-        <v>1.849661</v>
+        <v>958.1405500000001</v>
       </c>
       <c r="I6">
-        <v>0.001926749855160762</v>
+        <v>0.9776862371851469</v>
       </c>
       <c r="J6">
-        <v>0.001926749855160763</v>
+        <v>0.977686237185147</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,22 +815,22 @@
         <v>0.036557</v>
       </c>
       <c r="O6">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P6">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q6">
-        <v>0.00751311746411111</v>
+        <v>3.891860454038889</v>
       </c>
       <c r="R6">
-        <v>0.06761805717699999</v>
+        <v>35.02674408635</v>
       </c>
       <c r="S6">
-        <v>2.549215637912777E-06</v>
+        <v>0.001464930663084016</v>
       </c>
       <c r="T6">
-        <v>2.549215637912779E-06</v>
+        <v>0.001464930663084017</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +838,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6165536666666667</v>
+        <v>319.3801833333334</v>
       </c>
       <c r="H7">
-        <v>1.849661</v>
+        <v>958.1405500000001</v>
       </c>
       <c r="I7">
-        <v>0.001926749855160762</v>
+        <v>0.9776862371851469</v>
       </c>
       <c r="J7">
-        <v>0.001926749855160763</v>
+        <v>0.977686237185147</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N7">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O7">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P7">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q7">
-        <v>0.1253073396238889</v>
+        <v>25.96103112237222</v>
       </c>
       <c r="R7">
-        <v>1.127766056615</v>
+        <v>233.64928010135</v>
       </c>
       <c r="S7">
-        <v>4.251702854911479E-05</v>
+        <v>0.009771961504162787</v>
       </c>
       <c r="T7">
-        <v>4.251702854911481E-05</v>
+        <v>0.009771961504162787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6165536666666667</v>
+        <v>319.3801833333334</v>
       </c>
       <c r="H8">
-        <v>1.849661</v>
+        <v>958.1405500000001</v>
       </c>
       <c r="I8">
-        <v>0.001926749855160762</v>
+        <v>0.9776862371851469</v>
       </c>
       <c r="J8">
-        <v>0.001926749855160763</v>
+        <v>0.977686237185147</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N8">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O8">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P8">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q8">
-        <v>5.513195142418334</v>
+        <v>2527.12923554425</v>
       </c>
       <c r="R8">
-        <v>49.618756281765</v>
+        <v>22744.16311989825</v>
       </c>
       <c r="S8">
-        <v>0.001870638032621306</v>
+        <v>0.9512337737811011</v>
       </c>
       <c r="T8">
-        <v>0.001870638032621306</v>
+        <v>0.9512337737811011</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>319.3801833333334</v>
+      </c>
+      <c r="H9">
+        <v>958.1405500000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9776862371851469</v>
+      </c>
+      <c r="J9">
+        <v>0.977686237185147</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.126567</v>
+      </c>
+      <c r="N9">
+        <v>0.379701</v>
+      </c>
+      <c r="O9">
+        <v>0.015562836683276</v>
+      </c>
+      <c r="P9">
+        <v>0.015562836683276</v>
+      </c>
+      <c r="Q9">
+        <v>40.42299166395</v>
+      </c>
+      <c r="R9">
+        <v>363.80692497555</v>
+      </c>
+      <c r="S9">
+        <v>0.01521557123679908</v>
+      </c>
+      <c r="T9">
+        <v>0.01521557123679908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.859904666666667</v>
+      </c>
+      <c r="H10">
+        <v>8.579713999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.008754736762560278</v>
+      </c>
+      <c r="J10">
+        <v>0.00875473676256028</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01218566666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.036557</v>
+      </c>
+      <c r="O10">
+        <v>0.001498364820294181</v>
+      </c>
+      <c r="P10">
+        <v>0.001498364820294181</v>
+      </c>
+      <c r="Q10">
+        <v>0.03484984496644444</v>
+      </c>
+      <c r="R10">
+        <v>0.313648604698</v>
+      </c>
+      <c r="S10">
+        <v>1.311778957595649E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.311778957595649E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.859904666666667</v>
+      </c>
+      <c r="H11">
+        <v>8.579713999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.008754736762560278</v>
+      </c>
+      <c r="J11">
+        <v>0.00875473676256028</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.08128566666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.243857</v>
+      </c>
+      <c r="O11">
+        <v>0.009994987279658562</v>
+      </c>
+      <c r="P11">
+        <v>0.009994987279658561</v>
+      </c>
+      <c r="Q11">
+        <v>0.2324692574331111</v>
+      </c>
+      <c r="R11">
+        <v>2.092223316898</v>
+      </c>
+      <c r="S11">
+        <v>8.750348257854916E-05</v>
+      </c>
+      <c r="T11">
+        <v>8.750348257854916E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.6165536666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.849661</v>
-      </c>
-      <c r="I9">
-        <v>0.001926749855160762</v>
-      </c>
-      <c r="J9">
-        <v>0.001926749855160763</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.05279966666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.158399</v>
-      </c>
-      <c r="O9">
-        <v>0.005732751619440172</v>
-      </c>
-      <c r="P9">
-        <v>0.005732751619440174</v>
-      </c>
-      <c r="Q9">
-        <v>0.03255382808211111</v>
-      </c>
-      <c r="R9">
-        <v>0.292984452739</v>
-      </c>
-      <c r="S9">
-        <v>1.104557835242898E-05</v>
-      </c>
-      <c r="T9">
-        <v>1.104557835242898E-05</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.859904666666667</v>
+      </c>
+      <c r="H12">
+        <v>8.579713999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.008754736762560278</v>
+      </c>
+      <c r="J12">
+        <v>0.00875473676256028</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.912604999999999</v>
+      </c>
+      <c r="N12">
+        <v>23.737815</v>
+      </c>
+      <c r="O12">
+        <v>0.9729438112167713</v>
+      </c>
+      <c r="P12">
+        <v>0.9729438112167712</v>
+      </c>
+      <c r="Q12">
+        <v>22.62929596499</v>
+      </c>
+      <c r="R12">
+        <v>203.6636636849099</v>
+      </c>
+      <c r="S12">
+        <v>0.008517866951964975</v>
+      </c>
+      <c r="T12">
+        <v>0.008517866951964975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.859904666666667</v>
+      </c>
+      <c r="H13">
+        <v>8.579713999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.008754736762560278</v>
+      </c>
+      <c r="J13">
+        <v>0.00875473676256028</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.126567</v>
+      </c>
+      <c r="N13">
+        <v>0.379701</v>
+      </c>
+      <c r="O13">
+        <v>0.015562836683276</v>
+      </c>
+      <c r="P13">
+        <v>0.015562836683276</v>
+      </c>
+      <c r="Q13">
+        <v>0.3619695539459999</v>
+      </c>
+      <c r="R13">
+        <v>3.257725985514</v>
+      </c>
+      <c r="S13">
+        <v>0.0001362485384407981</v>
+      </c>
+      <c r="T13">
+        <v>0.0001362485384407981</v>
       </c>
     </row>
   </sheetData>
